--- a/数据整理/stocks/A股/上证主板/600859-王府井.xlsx
+++ b/数据整理/stocks/A股/上证主板/600859-王府井.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002005</t>
+          <t>005526</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>工银瑞信新得利混合</t>
+          <t>工银瑞信新生代消费灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>29.86</t>
+          <t>6.54</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1628</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005526</t>
+          <t>002005</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>工银瑞信新生代消费灵活配置混合</t>
+          <t>工银瑞信新得利混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>91.28</t>
+          <t>4.99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>29.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -594,26 +634,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002005</t>
+          <t>398001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>工银瑞信新得利混合</t>
+          <t>中海优质成长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>29.90</t>
+          <t>15.70</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>81.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6186</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -622,26 +672,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005526</t>
+          <t>000880</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>工银瑞信新生代消费灵活配置混合</t>
+          <t>富国研究精选灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>92.81</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4173</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -650,26 +710,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000880</t>
+          <t>008166</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富国研究精选灵活配置混合</t>
+          <t>工银瑞信消费行业股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>92.59</t>
+          <t>7.17</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>8.33</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2101</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -678,26 +748,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>398001</t>
+          <t>161123</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中海优质成长混合</t>
+          <t>易方达并购重组指数（LOF）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>81.65</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1579</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -706,26 +786,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001252</t>
+          <t>002005</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中海进取收益灵活配置混合</t>
+          <t>工银瑞信新得利混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>82.37</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>29.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0748</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -734,25 +824,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>161123</t>
+          <t>005526</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>易方达并购重组指数（LOF）</t>
+          <t>工银瑞信新生代消费灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.39</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>9</v>
       </c>
     </row>
@@ -762,25 +862,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>008166</t>
+          <t>008167</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>工银瑞信消费行业股票A</t>
+          <t>工银瑞信消费行业股票C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>94.63</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>2.93</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>8</v>
       </c>
     </row>
@@ -790,26 +900,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>008167</t>
+          <t>001252</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>工银瑞信消费行业股票C</t>
+          <t>中海进取收益灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>94.63</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
+          <t>82.37</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600859-王府井.xlsx
+++ b/数据整理/stocks/A股/上证主板/600859-王府井.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -935,4 +936,402 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001071</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9674</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006879</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安智能生活混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1085</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>398001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中海优质成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5374</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008166</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信消费行业股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2888</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信新得利混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>29.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1444</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005526</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信新生代消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1011</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008167</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信消费行业股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004790</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600859-王府井.xlsx
+++ b/数据整理/stocks/A股/上证主板/600859-王府井.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1334,4 +1335,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006879</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安智能生活混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1674</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>398001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中海优质成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5464</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002005</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信新得利混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>29.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1186</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005526</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信新生代消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0978</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001252</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中海进取收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600859-王府井.xlsx
+++ b/数据整理/stocks/A股/上证主板/600859-王府井.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1581,4 +1582,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600859-王府井.xlsx
+++ b/数据整理/stocks/A股/上证主板/600859-王府井.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1590,7 +1591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1601,17 +1602,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1621,14 +1642,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>006879</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安智能生活混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7439</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1.94</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="3">
@@ -1637,14 +1732,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>4.21</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="4">
@@ -1653,14 +1748,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>1.6</v>
+        <v>4.21</v>
       </c>
     </row>
     <row r="5">
@@ -1669,13 +1764,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.22</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600859-王府井.xlsx
+++ b/数据整理/stocks/A股/上证主板/600859-王府井.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1685,7 +1686,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1696,17 +1697,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1716,14 +1737,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.74</v>
+          <t>001071</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>51.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5237</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1732,14 +1775,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.94</v>
+          <t>001694</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安沪港深外延增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>43.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0918</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1748,14 +1813,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.21</v>
+          <t>006879</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安智能生活混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>33.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5769</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1764,14 +1851,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.6</v>
+          <t>007460</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安成长创新混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6209</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1780,13 +1889,205 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>006346</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006347</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.82</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.22</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600859-王府井.xlsx
+++ b/数据整理/stocks/A股/上证主板/600859-王府井.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1970,7 +1971,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1981,17 +1982,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2001,14 +2022,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.82</v>
+          <t>001071</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>55.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4310</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -2017,14 +2060,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.74</v>
+          <t>001694</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安沪港深外延增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>45.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9285</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -2033,14 +2098,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>006879</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安智能生活混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2429</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.94</v>
       </c>
     </row>
     <row r="5">
@@ -2049,14 +2136,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>9</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.21</v>
+          <t>013621</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安智能生活混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3244</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -2065,14 +2174,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>8</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.6</v>
+          <t>013620</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -2081,13 +2212,297 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>003980</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003981</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001914</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>40.14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006845</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>40.14</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.03</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.82</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.22</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600859-王府井.xlsx
+++ b/数据整理/stocks/A股/上证主板/600859-王府井.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>6.03</v>
+        <v>10.11</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>6.82</v>
+        <v>6.03</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>0.74</v>
+        <v>6.82</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1.94</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>4.21</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>1.6</v>
+        <v>4.21</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>8</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -600,6 +617,860 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005233</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0968</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001071</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>48.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6636</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001694</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安沪港深外延增长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>38.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5194</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0269</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006879</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安智能生活混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>27.26</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0195</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012449</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19.65</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9727</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012528</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发鑫睿一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3340</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014734</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发睿合混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2771</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013621</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安智能生活混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2558</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000880</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国研究精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2396</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012529</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发鑫睿一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2180</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014754</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1853</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014177</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安景气驱动一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1115</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014735</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发睿合混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014755</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华安景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013620</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014178</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安景气驱动一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>016313</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国研究精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014972</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华安沪港深外延增长混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001914</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>39.73</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006845</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>39.73</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -997,7 +1868,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1281,7 +2152,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1375,7 +2246,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1621,7 +2492,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2019,7 +2890,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2379,7 +3250,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600859-王府井.xlsx
+++ b/数据整理/stocks/A股/上证主板/600859-王府井.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D2" t="n">
-        <v>10.11</v>
+        <v>23.73</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D3" t="n">
-        <v>6.03</v>
+        <v>10.11</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>6.82</v>
+        <v>6.03</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>0.74</v>
+        <v>6.82</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1.94</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>4.21</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>1.6</v>
+        <v>4.21</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>2</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -616,7 +633,2057 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005526</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信新生代消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1628</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信新得利混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>29.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005233</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8064</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008099</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发价值领先混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>67.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.3341</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8517</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012449</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8313</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001071</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>51.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8296</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001694</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安沪港深外延增长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>38.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5857</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010420</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>民生加银成长优选股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>33.68</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1822</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006879</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安智能生活混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>28.87</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1779</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007460</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安成长创新混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.41</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7155</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000136</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>民生加银策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>19.52</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.96</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6988</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012420</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发价值领先混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.92</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5912</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014734</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发睿合混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5706</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013607</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发睿恒进取一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5480</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013621</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安智能生活混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.19</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4566</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002621</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.21</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4237</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009659</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>民生加银新动能一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3249</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007126</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博道远航混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2751</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014735</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发睿合混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2671</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010296</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>万家互联互通中国优势量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2478</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002697</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2249</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000880</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国研究精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2168</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014754</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华安景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2123</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007127</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博道远航混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2042</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012528</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发鑫睿一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>95.35</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1967</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004350</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1902</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009660</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>民生加银新动能一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1252</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012529</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发鑫睿一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>95.35</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0963</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013620</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>015838</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发招利混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014755</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华安景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>016553</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>南方鑫悦15个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>37.58</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0555</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013608</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发睿恒进取一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013184</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>广发恒阳一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>28.15</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>015839</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发招利混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010297</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>万家互联互通中国优势量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>013185</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>广发恒阳一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>28.15</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001536</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>南方君选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>64.14</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>016099</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华安成长创新混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002135</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>广发鑫源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>27.74</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>97.02</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>016313</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富国研究精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002136</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>广发鑫源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>27.74</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>510190</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华安上证龙头ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>98.19</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009709</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>民生加银策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>81.96</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>014972</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华安沪港深外延增长混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>013590</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>南方比较优势混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>65.53</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>015364</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>013591</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>南方比较优势混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>65.53</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>016554</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>南方鑫悦15个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>37.58</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1470,7 +3537,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1868,7 +3935,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2152,7 +4219,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2246,7 +4313,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2492,7 +4559,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2890,7 +4957,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3248,136 +5315,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>005526</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>工银瑞信新生代消费灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>6.54</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.28</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1628</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002005</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>工银瑞信新得利混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>29.86</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0589</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>